--- a/Credit Risk Analysis/Clasificacion_columnas_DS2.xlsx
+++ b/Credit Risk Analysis/Clasificacion_columnas_DS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luciaalonsoarias/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javiergilabertsabater/Desktop/Madrid/5º AÑO/1º CUATRI/Credit risk analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B857DF-37C8-9348-9591-B4D7F44636C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6C0EB9-A686-CF41-8A86-A6CB97DE5A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1073,7 +1073,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D27" s="2"/>
     </row>
